--- a/GNFA/Entrega/Matriculados/Mat_Sede.xlsx
+++ b/GNFA/Entrega/Matriculados/Mat_Sede.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -368,6 +368,11 @@
           <t>2023-1</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2023-2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -378,6 +383,9 @@
       <c r="B2">
         <v>33844</v>
       </c>
+      <c r="C2">
+        <v>33064</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -388,6 +396,9 @@
       <c r="B3">
         <v>206</v>
       </c>
+      <c r="C3">
+        <v>235</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -398,6 +409,9 @@
       <c r="B4">
         <v>173</v>
       </c>
+      <c r="C4">
+        <v>173</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -408,6 +422,9 @@
       <c r="B5">
         <v>71</v>
       </c>
+      <c r="C5">
+        <v>75</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -418,6 +435,9 @@
       <c r="B6">
         <v>241</v>
       </c>
+      <c r="C6">
+        <v>225</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -428,6 +448,9 @@
       <c r="B7">
         <v>5630</v>
       </c>
+      <c r="C7">
+        <v>5492</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -438,6 +461,9 @@
       <c r="B8">
         <v>1215</v>
       </c>
+      <c r="C8">
+        <v>1256</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -448,6 +474,9 @@
       <c r="B9">
         <v>12895</v>
       </c>
+      <c r="C9">
+        <v>12345</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -457,6 +486,9 @@
       </c>
       <c r="B10">
         <v>2783</v>
+      </c>
+      <c r="C10">
+        <v>2793</v>
       </c>
     </row>
   </sheetData>
